--- a/rts.xlsx
+++ b/rts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben_alterman/GitHub/NFL Elo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben_alterman/GitHub/NFL_Elo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DE37B2-7AA3-E84B-B388-6824425DADCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198704FE-E533-BF4A-AEE6-AEBD39198F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{9D703858-ECA7-2C43-82E7-E444EB18934B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="weighted" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -212,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -222,6 +224,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +544,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,7 +565,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>1223</v>
+        <f>weighted!H2</f>
+        <v>1402</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -569,7 +574,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>1575</v>
+        <f>weighted!H3</f>
+        <v>1805</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -577,6 +583,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
+        <f>weighted!H4</f>
         <v>1200</v>
       </c>
     </row>
@@ -585,7 +592,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <v>1320</v>
+        <f>weighted!H5</f>
+        <v>1394</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -593,7 +601,8 @@
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <v>1411</v>
+        <f>weighted!H6</f>
+        <v>1491</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -601,7 +610,8 @@
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <v>1220</v>
+        <f>weighted!H7</f>
+        <v>1433</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -609,7 +619,8 @@
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <v>1458</v>
+        <f>weighted!H8</f>
+        <v>1575</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -617,7 +628,8 @@
         <v>8</v>
       </c>
       <c r="B9" s="8">
-        <v>1284</v>
+        <f>weighted!H9</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -625,7 +637,8 @@
         <v>9</v>
       </c>
       <c r="B10" s="8">
-        <v>1620</v>
+        <f>weighted!H10</f>
+        <v>1792</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -633,7 +646,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="8">
-        <v>1750</v>
+        <f>weighted!H11</f>
+        <v>1932</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -641,7 +655,8 @@
         <v>11</v>
       </c>
       <c r="B12" s="8">
-        <v>1585</v>
+        <f>weighted!H12</f>
+        <v>1760</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -649,7 +664,8 @@
         <v>12</v>
       </c>
       <c r="B13" s="8">
-        <v>1570</v>
+        <f>weighted!H13</f>
+        <v>1625</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -657,7 +673,8 @@
         <v>13</v>
       </c>
       <c r="B14" s="8">
-        <v>1200</v>
+        <f>weighted!H14</f>
+        <v>1206</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -665,7 +682,8 @@
         <v>14</v>
       </c>
       <c r="B15" s="8">
-        <v>1664</v>
+        <f>weighted!H15</f>
+        <v>1777</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -673,7 +691,8 @@
         <v>15</v>
       </c>
       <c r="B16" s="8">
-        <v>1610</v>
+        <f>weighted!H16</f>
+        <v>1634</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -681,7 +700,8 @@
         <v>16</v>
       </c>
       <c r="B17" s="8">
-        <v>1305</v>
+        <f>weighted!H17</f>
+        <v>1377</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -689,7 +709,8 @@
         <v>17</v>
       </c>
       <c r="B18" s="8">
-        <v>1430</v>
+        <f>weighted!H18</f>
+        <v>1527</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -697,7 +718,8 @@
         <v>18</v>
       </c>
       <c r="B19" s="8">
-        <v>1200</v>
+        <f>weighted!H19</f>
+        <v>1245</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -705,7 +727,8 @@
         <v>19</v>
       </c>
       <c r="B20" s="8">
-        <v>1477</v>
+        <f>weighted!H20</f>
+        <v>1601</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -713,7 +736,8 @@
         <v>20</v>
       </c>
       <c r="B21" s="8">
-        <v>1330</v>
+        <f>weighted!H21</f>
+        <v>1365</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -721,7 +745,8 @@
         <v>21</v>
       </c>
       <c r="B22" s="8">
-        <v>1631</v>
+        <f>weighted!H22</f>
+        <v>1749</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -729,7 +754,8 @@
         <v>22</v>
       </c>
       <c r="B23" s="8">
-        <v>1800</v>
+        <f>weighted!H23</f>
+        <v>1922</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -737,7 +763,8 @@
         <v>23</v>
       </c>
       <c r="B24" s="8">
-        <v>1315</v>
+        <f>weighted!H24</f>
+        <v>1266</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -745,7 +772,8 @@
         <v>24</v>
       </c>
       <c r="B25" s="8">
-        <v>1741</v>
+        <f>weighted!H25</f>
+        <v>2036</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -753,7 +781,8 @@
         <v>25</v>
       </c>
       <c r="B26" s="8">
-        <v>1589</v>
+        <f>weighted!H26</f>
+        <v>1683</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -761,7 +790,8 @@
         <v>26</v>
       </c>
       <c r="B27" s="8">
-        <v>1388</v>
+        <f>weighted!H27</f>
+        <v>1412</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -769,7 +799,8 @@
         <v>27</v>
       </c>
       <c r="B28" s="8">
-        <v>1800</v>
+        <f>weighted!H28</f>
+        <v>2056</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -777,7 +808,8 @@
         <v>28</v>
       </c>
       <c r="B29" s="8">
-        <v>1553</v>
+        <f>weighted!H29</f>
+        <v>1620</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,7 +817,8 @@
         <v>29</v>
       </c>
       <c r="B30" s="8">
-        <v>1800</v>
+        <f>weighted!H30</f>
+        <v>1972</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -793,7 +826,8 @@
         <v>30</v>
       </c>
       <c r="B31" s="8">
-        <v>1605</v>
+        <f>weighted!H31</f>
+        <v>1811</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -801,7 +835,8 @@
         <v>31</v>
       </c>
       <c r="B32" s="8">
-        <v>1481</v>
+        <f>weighted!H32</f>
+        <v>1543</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -809,7 +844,8 @@
         <v>32</v>
       </c>
       <c r="B33" s="8">
-        <v>1800</v>
+        <f>weighted!H33</f>
+        <v>1937</v>
       </c>
     </row>
   </sheetData>
@@ -819,19 +855,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C229A372-037A-554B-9307-F08C411C0767}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H33"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="6"/>
+    <col min="9" max="9" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="9"/>
+    <col min="14" max="14" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,1006 +897,1182 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>329.5</v>
+        <v>343.6</v>
       </c>
       <c r="C2">
-        <v>395.4</v>
+        <v>388.3</v>
       </c>
       <c r="D2" s="3">
-        <f>B2/$B$35 -1</f>
-        <v>-8.7826147138210131E-2</v>
+        <f>B2/$C$35 -1</f>
+        <v>-4.8026389838872974E-2</v>
       </c>
       <c r="E2" s="3">
         <f>C2/$C$35 -1</f>
-        <v>9.652482884132052E-2</v>
+        <v>7.5818838258340016E-2</v>
       </c>
       <c r="F2" s="4">
         <f>D2-E2</f>
-        <v>-0.18435097597953065</v>
+        <v>-0.12384522809721299</v>
       </c>
       <c r="G2" s="6">
-        <f>F2*1500+1500</f>
-        <v>1223.4735360307041</v>
+        <f>F2*1600+1600</f>
+        <v>1401.8476350444591</v>
       </c>
       <c r="H2">
-        <f>ROUND(IF(G2&lt;1200,1200, IF(G2&gt;1800,1800,G2)),0)</f>
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <f>ROUND(IF(G2&lt;1200,1200, IF(G2&gt;2100,2100,G2)),0)</f>
+        <v>1402</v>
+      </c>
+      <c r="I2" s="6">
+        <f>H2/3200*16</f>
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>350</v>
+        <v>357.6</v>
       </c>
       <c r="C3">
-        <v>331.3</v>
+        <v>311.3</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D33" si="0">B3/$B$35 -1</f>
-        <v>-3.1074814866080658E-2</v>
+        <f t="shared" ref="D3:D33" si="0">B3/$C$35 -1</f>
+        <v>-9.2381752222961966E-3</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E33" si="1">C3/$C$35 -1</f>
-        <v>-8.1237542248028594E-2</v>
+        <v>-0.13751634213283226</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F33" si="2">D3-E3</f>
-        <v>5.0162727381947936E-2</v>
+        <v>0.12827816691053606</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G33" si="3">F3*1500+1500</f>
-        <v>1575.2440910729219</v>
+        <f t="shared" ref="G3:G33" si="3">F3*1600+1600</f>
+        <v>1805.2450670568578</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H33" si="4">ROUND(IF(G3&lt;1200,1200, IF(G3&gt;1800,1800,G3)),0)</f>
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H3:H33" si="4">ROUND(IF(G3&lt;1200,1200, IF(G3&gt;2100,2100,G3)),0)</f>
+        <v>1805</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I33" si="5">H3/3200*16</f>
+        <v>9.0250000000000004</v>
+      </c>
+      <c r="K3" s="10">
+        <f>13/16</f>
+        <v>0.8125</v>
+      </c>
+      <c r="L3">
+        <f>K3+0.5</f>
+        <v>1.3125</v>
+      </c>
+      <c r="M3">
+        <f>L3*1600</f>
+        <v>2100</v>
+      </c>
+      <c r="N3" s="10">
+        <f>M3/3200</f>
+        <v>0.65625</v>
+      </c>
+      <c r="O3">
+        <f>N3*16</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>336.7</v>
+        <v>334.5</v>
       </c>
       <c r="C4">
-        <v>415.3</v>
+        <v>438.5</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>-6.7893971901169525E-2</v>
+        <v>-7.3238729339647923E-2</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="1"/>
-        <v>0.1517115867926162</v>
+        <v>0.21490229352635093</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="2"/>
-        <v>-0.21960555869378573</v>
+        <v>-0.28814102286599885</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="3"/>
-        <v>1170.5916619593213</v>
+        <v>1138.974363414402</v>
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="6">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K4" s="10">
+        <f>4/16</f>
+        <v>0.25</v>
+      </c>
+      <c r="L4">
+        <f>K4+0.5</f>
+        <v>0.75</v>
+      </c>
+      <c r="M4">
+        <f>L4*1600</f>
+        <v>1200</v>
+      </c>
+      <c r="N4" s="10">
+        <f>M4/3200</f>
+        <v>0.375</v>
+      </c>
+      <c r="O4">
+        <f>N4*16</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>320.2</v>
+        <v>303.39999999999998</v>
       </c>
       <c r="C5">
-        <v>362.8</v>
+        <v>349.9</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>-0.11357187348605435</v>
+        <v>-0.15940397752361501</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="1"/>
-        <v>6.1183811422131917E-3</v>
+        <v>-3.0571693261413513E-2</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="2"/>
-        <v>-0.11969025462826755</v>
+        <v>-0.1288322842622015</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="3"/>
-        <v>1320.4646180575987</v>
+        <v>1393.8683451804777</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1394</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="5"/>
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>323.7</v>
+        <v>328.6</v>
       </c>
       <c r="C6">
-        <v>344.5</v>
+        <v>353.2</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>-0.10388262163471518</v>
+        <v>-8.9585191213776616E-2</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>-4.4631250541641521E-2</v>
+        <v>-2.1428756958934758E-2</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="2"/>
-        <v>-5.9251371093073657E-2</v>
+        <v>-6.8156434254841858E-2</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="3"/>
-        <v>1411.1229433603894</v>
+        <v>1490.9497051922531</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1491</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="5"/>
+        <v>7.4550000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>307.2</v>
+        <v>323.7</v>
       </c>
       <c r="C7">
-        <v>374</v>
+        <v>361.3</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>-0.14956052321959989</v>
+        <v>-0.10316106632957867</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="1"/>
-        <v>3.7178265014299106E-2</v>
+        <v>1.0129957835134373E-3</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>-0.186738788233899</v>
+        <v>-0.1041740621130921</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="3"/>
-        <v>1219.8918176491516</v>
+        <v>1433.3215006190526</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1433</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="5"/>
+        <v>7.165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>388.4</v>
+        <v>394.1</v>
       </c>
       <c r="C8">
-        <v>397.8</v>
+        <v>399.7</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>7.5230119731469314E-2</v>
+        <v>9.1888241456635988E-2</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="1"/>
-        <v>0.10318051824248187</v>
+        <v>0.10740352730326674</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="2"/>
-        <v>-2.7950398511012553E-2</v>
+        <v>-1.5515285846630755E-2</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="3"/>
-        <v>1458.0744022334811</v>
+        <v>1575.1755426453908</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1575</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="5"/>
+        <v>7.875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>281.5</v>
+        <v>253.3</v>
       </c>
       <c r="C9">
-        <v>333</v>
+        <v>345.2</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>-0.22070731538514765</v>
+        <v>-0.29821037411579321</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>-7.6523095588872714E-2</v>
+        <v>-4.3593451025550012E-2</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>-0.14418421979627494</v>
+        <v>-0.2546169230902432</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="3"/>
-        <v>1283.7236703055876</v>
+        <v>1192.612923055611</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>394.4</v>
+        <v>403.8</v>
       </c>
       <c r="C10">
-        <v>364.8</v>
+        <v>360.5</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>9.1840265762336504E-2</v>
+        <v>0.11876293301240715</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="1"/>
-        <v>1.166478897651424E-2</v>
+        <v>-1.2034736231482102E-3</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>8.0175476785822264E-2</v>
+        <v>0.11996640663555536</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="3"/>
-        <v>1620.2632151787334</v>
+        <v>1791.9462506168886</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1792</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="5"/>
+        <v>8.9600000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>468.9</v>
+        <v>494.8</v>
       </c>
       <c r="C11">
-        <v>407.9</v>
+        <v>419.9</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>0.2980829123122708</v>
+        <v>0.3708863280201562</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="1"/>
-        <v>0.13118987780570213</v>
+        <v>0.16336937982147037</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>0.16689303450656867</v>
+        <v>0.20751694819868582</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="3"/>
-        <v>1750.3395517598531</v>
+        <v>1932.0271171178974</v>
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1932</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="5"/>
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>375.9</v>
+        <v>379.6</v>
       </c>
       <c r="C12">
-        <v>354.9</v>
+        <v>343.4</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>4.0625648833829464E-2</v>
+        <v>5.1714733460895834E-2</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="1"/>
-        <v>-1.5789929803276093E-2</v>
+        <v>-4.8580507190538524E-2</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>5.6415578637105557E-2</v>
+        <v>0.10029524065143436</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="3"/>
-        <v>1584.6233679556583</v>
+        <v>1760.4723850422949</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1760</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="5"/>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>384</v>
+        <v>371.5</v>
       </c>
       <c r="C13">
-        <v>366.6</v>
+        <v>365.9</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>6.304934597550016E-2</v>
+        <v>2.927298071844775E-2</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>1.665655602738525E-2</v>
+        <v>1.3757694871816994E-2</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="2"/>
-        <v>4.639278994811491E-2</v>
+        <v>1.5515285846630755E-2</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="3"/>
-        <v>1569.5891849221723</v>
+        <v>1624.8244573546092</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1625</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="5"/>
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>305.8</v>
+        <v>298.3</v>
       </c>
       <c r="C14">
-        <v>383</v>
+        <v>387.1</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>-0.15343622396013556</v>
+        <v>-0.17353396999108217</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="1"/>
-        <v>6.2137100268653933E-2</v>
+        <v>7.24941341483476E-2</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>-0.2155733242287895</v>
+        <v>-0.24602810413942977</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="3"/>
-        <v>1176.6400136568159</v>
+        <v>1206.3550333769124</v>
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1206</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="5"/>
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>386.2</v>
+        <v>389</v>
       </c>
       <c r="C15">
-        <v>346.2</v>
+        <v>349</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>6.9139732853484848E-2</v>
+        <v>7.7758248989168832E-2</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="1"/>
-        <v>-3.9916803882485641E-2</v>
+        <v>-3.3065221343907658E-2</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>0.10905653673597049</v>
+        <v>0.11082347033307649</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="3"/>
-        <v>1663.5848051039557</v>
+        <v>1777.3175525329225</v>
       </c>
       <c r="H15">
         <f t="shared" si="4"/>
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1777</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="5"/>
+        <v>8.8849999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>422.5</v>
+        <v>406.8</v>
       </c>
       <c r="C16">
-        <v>395.3</v>
+        <v>399.2</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>0.16963111634023131</v>
+        <v>0.12707469328738785</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="1"/>
-        <v>9.6247508449605501E-2</v>
+        <v>0.10601823392410314</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="2"/>
-        <v>7.3383607890625813E-2</v>
+        <v>2.1056459363284707E-2</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="3"/>
-        <v>1610.0754118359387</v>
+        <v>1633.6903349812555</v>
       </c>
       <c r="H16">
         <f t="shared" si="4"/>
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1634</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="5"/>
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>328.1</v>
+        <v>336.2</v>
       </c>
       <c r="C17">
-        <v>374.5</v>
+        <v>386.5</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>-9.1701847878745801E-2</v>
+        <v>-6.8528731850492242E-2</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="1"/>
-        <v>3.8564866972874423E-2</v>
+        <v>7.0831782093351503E-2</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="2"/>
-        <v>-0.13026671485162022</v>
+        <v>-0.13936051394384374</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="3"/>
-        <v>1304.5999277225696</v>
+        <v>1377.0231776898499</v>
       </c>
       <c r="H17">
         <f t="shared" si="4"/>
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1377</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="5"/>
+        <v>6.8849999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>307.8</v>
+        <v>303.39999999999998</v>
       </c>
       <c r="C18">
-        <v>324.2</v>
+        <v>319.8</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>-0.14789950861651313</v>
+        <v>-0.15940397752361501</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="1"/>
-        <v>-0.10092729005979739</v>
+        <v>-0.11396635468705352</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="2"/>
-        <v>-4.6972218556715739E-2</v>
+        <v>-4.5437622836561498E-2</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="3"/>
-        <v>1429.5416721649265</v>
+        <v>1527.2998034615016</v>
       </c>
       <c r="H18">
         <f t="shared" si="4"/>
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1527</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="5"/>
+        <v>7.6349999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>296.7</v>
+        <v>294.89999999999998</v>
       </c>
       <c r="C19">
-        <v>373.1</v>
+        <v>374.9</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>-0.17862827877361753</v>
+        <v>-0.18295396496939376</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="1"/>
-        <v>3.4682381488863712E-2</v>
+        <v>3.8692975696759335E-2</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="2"/>
-        <v>-0.21331066026248124</v>
+        <v>-0.22164694066615309</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="3"/>
-        <v>1180.0340096062782</v>
+        <v>1245.364894934155</v>
       </c>
       <c r="H19">
         <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1245</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2249999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>359.8</v>
+        <v>351.4</v>
       </c>
       <c r="C20">
-        <v>364.6</v>
+        <v>351.1</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>-3.9449096823308549E-3</v>
+        <v>-2.641581312392316E-2</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="1"/>
-        <v>1.1110148193084202E-2</v>
+        <v>-2.7246989151421097E-2</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="2"/>
-        <v>-1.5055057875415057E-2</v>
+        <v>8.311760274979374E-4</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="3"/>
-        <v>1477.4174131868774</v>
+        <v>1601.3298816439967</v>
       </c>
       <c r="H20">
         <f t="shared" si="4"/>
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1601</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="5"/>
+        <v>8.0050000000000008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>365.3</v>
+        <v>353.8</v>
       </c>
       <c r="C21">
-        <v>405.5</v>
+        <v>406.9</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>1.1281057512630754E-2</v>
+        <v>-1.976640490393855E-2</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="1"/>
-        <v>0.124534188404541</v>
+        <v>0.12735175196322035</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
-        <v>-0.11325313089191025</v>
+        <v>-0.1471181568671589</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="3"/>
-        <v>1330.1203036621346</v>
+        <v>1364.6109490125457</v>
       </c>
       <c r="H21">
         <f t="shared" si="4"/>
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1365</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="5"/>
+        <v>6.8250000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>380.1</v>
+        <v>389.1</v>
       </c>
       <c r="C22">
-        <v>348</v>
+        <v>355.5</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>5.2252751055436475E-2</v>
+        <v>7.8035307665001552E-2</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="1"/>
-        <v>-3.4925036831614631E-2</v>
+        <v>-1.5056407414782758E-2</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
-        <v>8.7177787887051106E-2</v>
+        <v>9.309171507978431E-2</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="3"/>
-        <v>1630.7666818305765</v>
+        <v>1748.9467441276549</v>
       </c>
       <c r="H22">
         <f t="shared" si="4"/>
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1749</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="5"/>
+        <v>8.7449999999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>435.7</v>
+        <v>430.8</v>
       </c>
       <c r="C23">
-        <v>345.5</v>
+        <v>358.2</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>0.206173437608139</v>
+        <v>0.19356877548723372</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
-        <v>-4.1858046624490997E-2</v>
+        <v>-7.5758231673000997E-3</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>0.24803148423263</v>
+        <v>0.20114459865453382</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="3"/>
-        <v>1872.0472263489451</v>
+        <v>1921.8313578472541</v>
       </c>
       <c r="H23">
         <f t="shared" si="4"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1922</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="5"/>
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>349</v>
+        <v>334.7</v>
       </c>
       <c r="C24">
-        <v>392.8</v>
+        <v>410</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>-3.3843172537891819E-2</v>
+        <v>-7.2684611987982595E-2</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
-        <v>8.9314498656729135E-2</v>
+        <v>0.135940570914034</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
-        <v>-0.12315767119462095</v>
+        <v>-0.20862518290201659</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="3"/>
-        <v>1315.2634932080687</v>
+        <v>1266.1997073567734</v>
       </c>
       <c r="H24">
         <f t="shared" si="4"/>
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1266</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="5"/>
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>402.3</v>
+        <v>447.1</v>
       </c>
       <c r="C25">
-        <v>343.6</v>
+        <v>348.8</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>0.11371029136964506</v>
+        <v>0.23872933964796239</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="1"/>
-        <v>-4.7127134067076915E-2</v>
+        <v>-3.3619338695573098E-2</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
-        <v>0.16083742543672197</v>
+        <v>0.27234867834353549</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="3"/>
-        <v>1741.2561381550829</v>
+        <v>2035.7578853496568</v>
       </c>
       <c r="H25">
         <f t="shared" si="4"/>
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2036</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="5"/>
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>324.89999999999998</v>
+        <v>317.2</v>
       </c>
       <c r="C26">
-        <v>302.89999999999998</v>
+        <v>298.5</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>-0.10056059242854176</v>
+        <v>-0.12116988025870357</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="1"/>
-        <v>-0.15999653349510379</v>
+        <v>-0.17297985263941673</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
-        <v>5.9435941066562026E-2</v>
+        <v>5.1809972380713165E-2</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="3"/>
-        <v>1589.153911599843</v>
+        <v>1682.895955809141</v>
       </c>
       <c r="H26">
         <f t="shared" si="4"/>
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1683</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="5"/>
+        <v>8.4149999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>349.4</v>
+        <v>325.2</v>
       </c>
       <c r="C27">
-        <v>375.6</v>
+        <v>367.7</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>-3.2735829469167421E-2</v>
+        <v>-9.9005186192088201E-2</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="1"/>
-        <v>4.1615391281740077E-2</v>
+        <v>1.8744751036805507E-2</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
-        <v>-7.4351220750907498E-2</v>
+        <v>-0.11774993722889371</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="3"/>
-        <v>1388.4731688736388</v>
+        <v>1411.60010043377</v>
       </c>
       <c r="H27">
         <f t="shared" si="4"/>
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1412</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="5"/>
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>450</v>
+        <v>455.4</v>
       </c>
       <c r="C28">
-        <v>363.3</v>
+        <v>352.5</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>0.24576095231503925</v>
+        <v>0.26172520974207569</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="1"/>
-        <v>7.5049831007885093E-3</v>
+        <v>-2.3368167689763464E-2</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>0.23825596921425074</v>
+        <v>0.28509337743183916</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="3"/>
-        <v>1857.3839538213761</v>
+        <v>2056.1494038909427</v>
       </c>
       <c r="H28">
         <f t="shared" si="4"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2056</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="5"/>
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>365.1</v>
+        <v>366.5</v>
       </c>
       <c r="C29">
-        <v>351.8</v>
+        <v>361.9</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
-        <v>1.0727385978268611E-2</v>
+        <v>1.5420046926813313E-2</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>-2.4386861946442573E-2</v>
+        <v>2.6753478385093121E-3</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>3.5114247924711184E-2</v>
+        <v>1.2744699088304001E-2</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="3"/>
-        <v>1552.6713718870667</v>
+        <v>1620.3915185412864</v>
       </c>
       <c r="H29">
         <f t="shared" si="4"/>
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1620</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="5"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>401.9</v>
+        <v>403.7</v>
       </c>
       <c r="C30">
-        <v>327.7</v>
+        <v>319.7</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="0"/>
-        <v>0.11260294830092055</v>
+        <v>0.11848587433657443</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="1"/>
-        <v>-9.1221076349770502E-2</v>
+        <v>-0.11424341336288624</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>0.20382402465069105</v>
+        <v>0.23272928769946066</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="3"/>
-        <v>1805.7360369760365</v>
+        <v>1972.366860319137</v>
       </c>
       <c r="H30">
         <f t="shared" si="4"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1972</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="5"/>
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>347.3</v>
+        <v>363.4</v>
       </c>
       <c r="C31">
-        <v>321.5</v>
+        <v>315.89999999999998</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="0"/>
-        <v>-3.8549380579970816E-2</v>
+        <v>6.8312279759996652E-3</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="1"/>
-        <v>-0.1084149406361038</v>
+        <v>-0.12477164304452859</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>6.986556005613298E-2</v>
+        <v>0.13160287102052826</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="3"/>
-        <v>1604.7983400841995</v>
+        <v>1810.5645936328451</v>
       </c>
       <c r="H31">
         <f t="shared" si="4"/>
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1811</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="5"/>
+        <v>9.0549999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>347</v>
+        <v>341.2</v>
       </c>
       <c r="C32">
-        <v>350.9</v>
+        <v>354.1</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>-3.9379887881514253E-2</v>
+        <v>-5.4675798058857694E-2</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="1"/>
-        <v>-2.6882745471878189E-2</v>
+        <v>-1.8935228876440391E-2</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>-1.2497142409636064E-2</v>
+        <v>-3.5740569182417303E-2</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="3"/>
-        <v>1481.2542863855458</v>
+        <v>1542.8150893081324</v>
       </c>
       <c r="H32">
         <f t="shared" si="4"/>
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1543</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="5"/>
+        <v>7.7149999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>373.9</v>
+        <v>371.6</v>
       </c>
       <c r="C33">
-        <v>300.7</v>
+        <v>295.5</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="0"/>
-        <v>3.5088933490206919E-2</v>
+        <v>2.955003939428047E-2</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>-0.16609758211283487</v>
+        <v>-0.18129161291439755</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>0.20118651560304179</v>
+        <v>0.21084165230867802</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="3"/>
-        <v>1801.7797734045628</v>
+        <v>1937.3466436938847</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1937</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="5"/>
+        <v>9.6850000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35">
         <f>AVERAGE(B2:B33)</f>
-        <v>361.22499999999997</v>
+        <v>361.50625000000008</v>
       </c>
       <c r="C35">
         <f>AVERAGE(C2:C33)</f>
-        <v>360.59375000000006</v>
+        <v>360.93437499999999</v>
+      </c>
+      <c r="G35" s="6">
+        <f>AVERAGE(G2:G33)</f>
+        <v>1602.5350868838693</v>
+      </c>
+      <c r="I35" s="6">
+        <f>AVERAGE(I2:I34)</f>
+        <v>8.0231250000000003</v>
       </c>
     </row>
   </sheetData>

--- a/rts.xlsx
+++ b/rts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben_alterman/GitHub/NFL_Elo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198704FE-E533-BF4A-AEE6-AEBD39198F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E050852-DFBD-5540-A06D-3DCEB93D6674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{9D703858-ECA7-2C43-82E7-E444EB18934B}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{9D703858-ECA7-2C43-82E7-E444EB18934B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -226,6 +226,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB10116-6D36-9648-AF35-71BF2F318A0A}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,7 +567,7 @@
       </c>
       <c r="B2" s="8">
         <f>weighted!H2</f>
-        <v>1402</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -575,7 +576,7 @@
       </c>
       <c r="B3" s="8">
         <f>weighted!H3</f>
-        <v>1805</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -584,7 +585,7 @@
       </c>
       <c r="B4" s="8">
         <f>weighted!H4</f>
-        <v>1200</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -593,7 +594,7 @@
       </c>
       <c r="B5" s="8">
         <f>weighted!H5</f>
-        <v>1394</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -602,7 +603,7 @@
       </c>
       <c r="B6" s="8">
         <f>weighted!H6</f>
-        <v>1491</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -611,7 +612,7 @@
       </c>
       <c r="B7" s="8">
         <f>weighted!H7</f>
-        <v>1433</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -620,7 +621,7 @@
       </c>
       <c r="B8" s="8">
         <f>weighted!H8</f>
-        <v>1575</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -629,7 +630,7 @@
       </c>
       <c r="B9" s="8">
         <f>weighted!H9</f>
-        <v>1200</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -638,7 +639,7 @@
       </c>
       <c r="B10" s="8">
         <f>weighted!H10</f>
-        <v>1792</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -647,7 +648,7 @@
       </c>
       <c r="B11" s="8">
         <f>weighted!H11</f>
-        <v>1932</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -656,7 +657,7 @@
       </c>
       <c r="B12" s="8">
         <f>weighted!H12</f>
-        <v>1760</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -665,7 +666,7 @@
       </c>
       <c r="B13" s="8">
         <f>weighted!H13</f>
-        <v>1625</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -674,7 +675,7 @@
       </c>
       <c r="B14" s="8">
         <f>weighted!H14</f>
-        <v>1206</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -683,7 +684,7 @@
       </c>
       <c r="B15" s="8">
         <f>weighted!H15</f>
-        <v>1777</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -692,7 +693,7 @@
       </c>
       <c r="B16" s="8">
         <f>weighted!H16</f>
-        <v>1634</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -701,7 +702,7 @@
       </c>
       <c r="B17" s="8">
         <f>weighted!H17</f>
-        <v>1377</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -710,7 +711,7 @@
       </c>
       <c r="B18" s="8">
         <f>weighted!H18</f>
-        <v>1527</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -719,7 +720,7 @@
       </c>
       <c r="B19" s="8">
         <f>weighted!H19</f>
-        <v>1245</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -728,7 +729,7 @@
       </c>
       <c r="B20" s="8">
         <f>weighted!H20</f>
-        <v>1601</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -737,7 +738,7 @@
       </c>
       <c r="B21" s="8">
         <f>weighted!H21</f>
-        <v>1365</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -746,7 +747,7 @@
       </c>
       <c r="B22" s="8">
         <f>weighted!H22</f>
-        <v>1749</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -755,7 +756,7 @@
       </c>
       <c r="B23" s="8">
         <f>weighted!H23</f>
-        <v>1922</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -764,7 +765,7 @@
       </c>
       <c r="B24" s="8">
         <f>weighted!H24</f>
-        <v>1266</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -773,7 +774,7 @@
       </c>
       <c r="B25" s="8">
         <f>weighted!H25</f>
-        <v>2036</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -782,7 +783,7 @@
       </c>
       <c r="B26" s="8">
         <f>weighted!H26</f>
-        <v>1683</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -791,7 +792,7 @@
       </c>
       <c r="B27" s="8">
         <f>weighted!H27</f>
-        <v>1412</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -800,7 +801,7 @@
       </c>
       <c r="B28" s="8">
         <f>weighted!H28</f>
-        <v>2056</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -809,7 +810,7 @@
       </c>
       <c r="B29" s="8">
         <f>weighted!H29</f>
-        <v>1620</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -818,7 +819,7 @@
       </c>
       <c r="B30" s="8">
         <f>weighted!H30</f>
-        <v>1972</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -827,7 +828,7 @@
       </c>
       <c r="B31" s="8">
         <f>weighted!H31</f>
-        <v>1811</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -836,7 +837,7 @@
       </c>
       <c r="B32" s="8">
         <f>weighted!H32</f>
-        <v>1543</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -845,7 +846,7 @@
       </c>
       <c r="B33" s="8">
         <f>weighted!H33</f>
-        <v>1937</v>
+        <v>1816</v>
       </c>
     </row>
   </sheetData>
@@ -855,10 +856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C229A372-037A-554B-9307-F08C411C0767}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,11 +868,11 @@
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="6"/>
     <col min="9" max="9" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="9"/>
+    <col min="11" max="11" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +898,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -920,19 +921,28 @@
         <v>-0.12384522809721299</v>
       </c>
       <c r="G2" s="6">
-        <f>F2*1600+1600</f>
-        <v>1401.8476350444591</v>
+        <f>(1+F2)*1500</f>
+        <v>1314.2321578541805</v>
       </c>
       <c r="H2">
-        <f>ROUND(IF(G2&lt;1200,1200, IF(G2&gt;2100,2100,G2)),0)</f>
-        <v>1402</v>
+        <f>ROUND(IF(G2&lt;1150,1150, IF(G2&gt;1850,1850,G2)),0)</f>
+        <v>1314</v>
       </c>
       <c r="I2" s="6">
-        <f>H2/3200*16</f>
-        <v>7.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f>(H2/1500)*8</f>
+        <v>7.008</v>
+      </c>
+      <c r="K2" s="8">
+        <f>AVERAGE(1150,1850)</f>
+        <v>1500</v>
+      </c>
+      <c r="L2" s="6">
+        <f>(1850-1150)/16</f>
+        <v>43.75</v>
+      </c>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -955,39 +965,21 @@
         <v>0.12827816691053606</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G33" si="3">F3*1600+1600</f>
-        <v>1805.2450670568578</v>
+        <f t="shared" ref="G3:G33" si="3">(1+F3)*1500</f>
+        <v>1692.417250365804</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H33" si="4">ROUND(IF(G3&lt;1200,1200, IF(G3&gt;2100,2100,G3)),0)</f>
-        <v>1805</v>
+        <f t="shared" ref="H3:H33" si="4">ROUND(IF(G3&lt;1150,1150, IF(G3&gt;1850,1850,G3)),0)</f>
+        <v>1692</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I33" si="5">H3/3200*16</f>
-        <v>9.0250000000000004</v>
-      </c>
-      <c r="K3" s="10">
-        <f>13/16</f>
-        <v>0.8125</v>
-      </c>
-      <c r="L3">
-        <f>K3+0.5</f>
-        <v>1.3125</v>
-      </c>
-      <c r="M3">
-        <f>L3*1600</f>
-        <v>2100</v>
-      </c>
-      <c r="N3" s="10">
-        <f>M3/3200</f>
-        <v>0.65625</v>
-      </c>
-      <c r="O3">
-        <f>N3*16</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I3:I33" si="5">(H3/1500)*8</f>
+        <v>9.0239999999999991</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1011,38 +1003,24 @@
       </c>
       <c r="G4" s="6">
         <f t="shared" si="3"/>
-        <v>1138.974363414402</v>
+        <v>1067.7884657010018</v>
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="K4" s="10">
-        <f>4/16</f>
-        <v>0.25</v>
+        <v>6.1333333333333337</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1150</v>
       </c>
       <c r="L4">
-        <f>K4+0.5</f>
-        <v>0.75</v>
-      </c>
-      <c r="M4">
-        <f>L4*1600</f>
-        <v>1200</v>
-      </c>
-      <c r="N4" s="10">
-        <f>M4/3200</f>
-        <v>0.375</v>
-      </c>
-      <c r="O4">
-        <f>N4*16</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1066,18 +1044,25 @@
       </c>
       <c r="G5" s="6">
         <f t="shared" si="3"/>
-        <v>1393.8683451804777</v>
+        <v>1306.7515736066978</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
-        <v>1394</v>
+        <v>1307</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="5"/>
-        <v>6.97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.9706666666666663</v>
+      </c>
+      <c r="K5" s="8">
+        <f>ROUND((K4+$L$2/2),0)</f>
+        <v>1172</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1101,18 +1086,25 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="3"/>
-        <v>1490.9497051922531</v>
+        <v>1397.7653486177371</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>1491</v>
+        <v>1398</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="5"/>
-        <v>7.4550000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7.4560000000000004</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" ref="K6:K36" si="6">ROUND((K5+$L$2/2),0)</f>
+        <v>1194</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1136,18 +1128,25 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="3"/>
-        <v>1433.3215006190526</v>
+        <v>1343.7389068303619</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>1433</v>
+        <v>1344</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="5"/>
-        <v>7.165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7.1680000000000001</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="6"/>
+        <v>1216</v>
+      </c>
+      <c r="L7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1171,18 +1170,25 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="3"/>
-        <v>1575.1755426453908</v>
+        <v>1476.727071230054</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>1575</v>
+        <v>1477</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="5"/>
-        <v>7.875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7.8773333333333335</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="6"/>
+        <v>1238</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1206,18 +1212,25 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="3"/>
-        <v>1192.612923055611</v>
+        <v>1118.0746153646353</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.1333333333333337</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="6"/>
+        <v>1260</v>
+      </c>
+      <c r="L9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1241,18 +1254,25 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="3"/>
-        <v>1791.9462506168886</v>
+        <v>1679.9496099533328</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
-        <v>1792</v>
+        <v>1680</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="5"/>
         <v>8.9600000000000009</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K10" s="8">
+        <f t="shared" si="6"/>
+        <v>1282</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1276,18 +1296,25 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="3"/>
-        <v>1932.0271171178974</v>
+        <v>1811.2754222980288</v>
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
-        <v>1932</v>
+        <v>1811</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="5"/>
-        <v>9.66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>9.658666666666667</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="6"/>
+        <v>1304</v>
+      </c>
+      <c r="L11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1311,18 +1338,25 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="3"/>
-        <v>1760.4723850422949</v>
+        <v>1650.4428609771514</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>1760</v>
+        <v>1650</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="5"/>
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K12" s="8">
+        <f t="shared" si="6"/>
+        <v>1326</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1346,18 +1380,25 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="3"/>
-        <v>1624.8244573546092</v>
+        <v>1523.272928769946</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>1625</v>
+        <v>1523</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="5"/>
-        <v>8.125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>8.1226666666666674</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="6"/>
+        <v>1348</v>
+      </c>
+      <c r="L13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1381,18 +1422,25 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="3"/>
-        <v>1206.3550333769124</v>
+        <v>1130.9578437908553</v>
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
-        <v>1206</v>
+        <v>1150</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="5"/>
-        <v>6.03</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.1333333333333337</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="6"/>
+        <v>1370</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1416,18 +1464,25 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="3"/>
-        <v>1777.3175525329225</v>
+        <v>1666.2352054996145</v>
       </c>
       <c r="H15">
         <f t="shared" si="4"/>
-        <v>1777</v>
+        <v>1666</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="5"/>
-        <v>8.8849999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>8.8853333333333335</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="6"/>
+        <v>1392</v>
+      </c>
+      <c r="L15">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1451,18 +1506,25 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="3"/>
-        <v>1633.6903349812555</v>
+        <v>1531.584689044927</v>
       </c>
       <c r="H16">
         <f t="shared" si="4"/>
-        <v>1634</v>
+        <v>1532</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="5"/>
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8.1706666666666674</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1486,18 +1548,25 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="3"/>
-        <v>1377.0231776898499</v>
+        <v>1290.9592290842345</v>
       </c>
       <c r="H17">
         <f t="shared" si="4"/>
-        <v>1377</v>
+        <v>1291</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="5"/>
-        <v>6.8849999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.8853333333333335</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="6"/>
+        <v>1436</v>
+      </c>
+      <c r="L17">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1521,18 +1590,25 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="3"/>
-        <v>1527.2998034615016</v>
+        <v>1431.8435657451578</v>
       </c>
       <c r="H18">
         <f t="shared" si="4"/>
-        <v>1527</v>
+        <v>1432</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="5"/>
-        <v>7.6349999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.6373333333333333</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="6"/>
+        <v>1458</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1556,18 +1632,25 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="3"/>
-        <v>1245.364894934155</v>
+        <v>1167.5295890007703</v>
       </c>
       <c r="H19">
         <f t="shared" si="4"/>
-        <v>1245</v>
+        <v>1168</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="5"/>
-        <v>6.2249999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.2293333333333329</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="6"/>
+        <v>1480</v>
+      </c>
+      <c r="L19">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1591,18 +1674,25 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="3"/>
-        <v>1601.3298816439967</v>
+        <v>1501.2467640412469</v>
       </c>
       <c r="H20">
         <f t="shared" si="4"/>
-        <v>1601</v>
+        <v>1501</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="5"/>
-        <v>8.0050000000000008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8.0053333333333327</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="6"/>
+        <v>1502</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1626,18 +1716,25 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="3"/>
-        <v>1364.6109490125457</v>
+        <v>1279.3227646992616</v>
       </c>
       <c r="H21">
         <f t="shared" si="4"/>
-        <v>1365</v>
+        <v>1279</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="5"/>
-        <v>6.8250000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.8213333333333335</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="6"/>
+        <v>1524</v>
+      </c>
+      <c r="L21">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1661,18 +1758,25 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="3"/>
-        <v>1748.9467441276549</v>
+        <v>1639.6375726196766</v>
       </c>
       <c r="H22">
         <f t="shared" si="4"/>
-        <v>1749</v>
+        <v>1640</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="5"/>
-        <v>8.7449999999999992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8.7466666666666661</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="6"/>
+        <v>1546</v>
+      </c>
+      <c r="L22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1696,18 +1800,25 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="3"/>
-        <v>1921.8313578472541</v>
+        <v>1801.7168979818005</v>
       </c>
       <c r="H23">
         <f t="shared" si="4"/>
-        <v>1922</v>
+        <v>1802</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="5"/>
-        <v>9.61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9.6106666666666669</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="6"/>
+        <v>1568</v>
+      </c>
+      <c r="L23">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1731,18 +1842,25 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="3"/>
-        <v>1266.1997073567734</v>
+        <v>1187.0622256469751</v>
       </c>
       <c r="H24">
         <f t="shared" si="4"/>
-        <v>1266</v>
+        <v>1187</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="5"/>
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.3306666666666667</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="6"/>
+        <v>1590</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1766,18 +1884,25 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="3"/>
-        <v>2035.7578853496568</v>
+        <v>1908.5230175153033</v>
       </c>
       <c r="H25">
         <f t="shared" si="4"/>
-        <v>2036</v>
+        <v>1850</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="5"/>
-        <v>10.18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9.8666666666666671</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="6"/>
+        <v>1612</v>
+      </c>
+      <c r="L25">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1801,18 +1926,25 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="3"/>
-        <v>1682.895955809141</v>
+        <v>1577.7149585710699</v>
       </c>
       <c r="H26">
         <f t="shared" si="4"/>
-        <v>1683</v>
+        <v>1578</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="5"/>
-        <v>8.4149999999999991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8.4160000000000004</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="6"/>
+        <v>1634</v>
+      </c>
+      <c r="L26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1836,18 +1968,25 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="3"/>
-        <v>1411.60010043377</v>
+        <v>1323.3750941566595</v>
       </c>
       <c r="H27">
         <f t="shared" si="4"/>
-        <v>1412</v>
+        <v>1323</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="5"/>
-        <v>7.06</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.056</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="6"/>
+        <v>1656</v>
+      </c>
+      <c r="L27">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1871,18 +2010,25 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="3"/>
-        <v>2056.1494038909427</v>
+        <v>1927.6400661477587</v>
       </c>
       <c r="H28">
         <f t="shared" si="4"/>
-        <v>2056</v>
+        <v>1850</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="5"/>
-        <v>10.28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9.8666666666666671</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="6"/>
+        <v>1678</v>
+      </c>
+      <c r="L28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1906,18 +2052,25 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="3"/>
-        <v>1620.3915185412864</v>
+        <v>1519.1170486324561</v>
       </c>
       <c r="H29">
         <f t="shared" si="4"/>
-        <v>1620</v>
+        <v>1519</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="5"/>
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8.1013333333333328</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="6"/>
+        <v>1700</v>
+      </c>
+      <c r="L29">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1941,18 +2094,25 @@
       </c>
       <c r="G30" s="6">
         <f t="shared" si="3"/>
-        <v>1972.366860319137</v>
+        <v>1849.093931549191</v>
       </c>
       <c r="H30">
         <f t="shared" si="4"/>
-        <v>1972</v>
+        <v>1849</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="5"/>
-        <v>9.86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9.8613333333333326</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="6"/>
+        <v>1722</v>
+      </c>
+      <c r="L30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1976,18 +2136,25 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="3"/>
-        <v>1810.5645936328451</v>
+        <v>1697.4043065307922</v>
       </c>
       <c r="H31">
         <f t="shared" si="4"/>
-        <v>1811</v>
+        <v>1697</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="5"/>
-        <v>9.0549999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9.0506666666666664</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="6"/>
+        <v>1744</v>
+      </c>
+      <c r="L31">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2011,18 +2178,25 @@
       </c>
       <c r="G32" s="6">
         <f t="shared" si="3"/>
-        <v>1542.8150893081324</v>
+        <v>1446.3891462263741</v>
       </c>
       <c r="H32">
         <f t="shared" si="4"/>
-        <v>1543</v>
+        <v>1446</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="5"/>
-        <v>7.7149999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.7119999999999997</v>
+      </c>
+      <c r="K32" s="8">
+        <f t="shared" si="6"/>
+        <v>1766</v>
+      </c>
+      <c r="L32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2046,18 +2220,34 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="3"/>
-        <v>1937.3466436938847</v>
+        <v>1816.262478463017</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>1937</v>
+        <v>1816</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="5"/>
-        <v>9.6850000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9.6853333333333325</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" si="6"/>
+        <v>1788</v>
+      </c>
+      <c r="L33">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K34" s="8">
+        <f t="shared" si="6"/>
+        <v>1810</v>
+      </c>
+      <c r="L34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B35">
         <f>AVERAGE(B2:B33)</f>
         <v>361.50625000000008</v>
@@ -2068,11 +2258,27 @@
       </c>
       <c r="G35" s="6">
         <f>AVERAGE(G2:G33)</f>
-        <v>1602.5350868838693</v>
+        <v>1502.3766439536275</v>
       </c>
       <c r="I35" s="6">
         <f>AVERAGE(I2:I34)</f>
-        <v>8.0231250000000003</v>
+        <v>8.0120000000000022</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" si="6"/>
+        <v>1832</v>
+      </c>
+      <c r="L35">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K36" s="8">
+        <f t="shared" si="6"/>
+        <v>1854</v>
+      </c>
+      <c r="L36">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
